--- a/SW_sample.xlsx
+++ b/SW_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senta\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b2b99fbce1d919c/문서/응소실/Team Project-지원/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E7AD30-12B9-48F0-BD5E-379594458321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B7E7AD30-12B9-48F0-BD5E-379594458321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D8877177-94C1-4A9D-B15A-1CA03A4BB7C3}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="160" windowWidth="9430" windowHeight="10720" xr2:uid="{324D088C-4340-4B5E-A908-D0EE852204ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{324D088C-4340-4B5E-A908-D0EE852204ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,6 @@
     </r>
   </si>
   <si>
-    <t>X3A6C5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -175,14 +171,6 @@
     </r>
   </si>
   <si>
-    <t>Y3B5D6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y3B6D5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -209,25 +197,31 @@
         <rFont val="Noto Sans Mono CJK JP Bold"/>
         <family val="2"/>
       </rPr>
-      <t>데이터베이스</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Noto Sans Mono CJK JP Bold"/>
-        <family val="2"/>
-      </rPr>
       <t>김우생</t>
     </r>
   </si>
   <si>
-    <t>Y3A5C6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X3B1D2</t>
+    <t>X3A6C53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y3B5D63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y3B6D53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y3A5C63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3B1D23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +269,12 @@
       <name val="Noto Sans Mono CJK JP Bold"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,6 +339,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,7 +661,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -703,7 +706,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -737,33 +740,33 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="J3" s="5">
         <v>5</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="5">
         <v>6</v>
@@ -771,49 +774,49 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="J4" s="5">
         <v>6</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5">
         <v>3</v>
@@ -822,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>12</v>
@@ -837,17 +840,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28">
+    <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5">
         <v>3</v>
@@ -856,16 +859,16 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="5">
         <v>1</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="5">
         <v>2</v>
@@ -874,5 +877,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>